--- a/output/LUY_KE_NGAY_SOC_TRANG.xlsx
+++ b/output/LUY_KE_NGAY_SOC_TRANG.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ118"/>
+  <dimension ref="A1:AU119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -636,15 +636,35 @@
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
+          <t>properties.Dư nợ phát sinh.id</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Dư nợ phát sinh.type</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Dư nợ phát sinh.formula.type</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Dư nợ phát sinh.formula.number</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
           <t>properties.STT.id</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>properties.STT.type</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>properties.STT.title</t>
         </is>
@@ -658,17 +678,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>00222ff8-cefb-4ae8-9158-3d12bac0731a</t>
+          <t>7791c7c1-0d0e-45e8-8da4-065604bcd21f</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-06-30T15:24:00.000Z</t>
+          <t>2024-07-01T04:19:00.000Z</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:22:00.000Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -681,7 +701,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.notion.so/1-00222ff8cefb4ae891583d12bac0731a</t>
+          <t>https://www.notion.so/1-7791c7c10d0e45e88da4065604bcd21f</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
@@ -817,15 +837,33 @@
       </c>
       <c r="AO2" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP2" t="inlineStr">
+      <c r="AT2" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ2" t="inlineStr">
+      <c r="AU2" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '1', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '1', 'href': None}]</t>
         </is>
@@ -839,7 +877,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6187aa46-68a2-4a2d-8045-4548c4b66af9</t>
+          <t>00222ff8-cefb-4ae8-9158-3d12bac0731a</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -849,7 +887,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:22:00.000Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -862,7 +900,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.notion.so/2-6187aa4668a24a2d80454548c4b66af9</t>
+          <t>https://www.notion.so/2-00222ff8cefb4ae891583d12bac0731a</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -998,15 +1036,33 @@
       </c>
       <c r="AO3" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP3" t="inlineStr">
+      <c r="AT3" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ3" t="inlineStr">
+      <c r="AU3" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '2', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '2', 'href': None}]</t>
         </is>
@@ -1020,7 +1076,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>464a57ea-ba65-4c01-9124-e01717e3f099</t>
+          <t>6187aa46-68a2-4a2d-8045-4548c4b66af9</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1030,7 +1086,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:22:00.000Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -1043,7 +1099,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.notion.so/3-464a57eaba654c019124e01717e3f099</t>
+          <t>https://www.notion.so/3-6187aa4668a24a2d80454548c4b66af9</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -1179,15 +1235,33 @@
       </c>
       <c r="AO4" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR4" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="AS4" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP4" t="inlineStr">
+      <c r="AT4" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ4" t="inlineStr">
+      <c r="AU4" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '3', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '3', 'href': None}]</t>
         </is>
@@ -1201,7 +1275,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>94d7f750-1494-430b-8178-f828dd9b7995</t>
+          <t>464a57ea-ba65-4c01-9124-e01717e3f099</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1211,7 +1285,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:22:00.000Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -1224,7 +1298,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.notion.so/4-94d7f7501494430b8178f828dd9b7995</t>
+          <t>https://www.notion.so/4-464a57eaba654c019124e01717e3f099</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -1360,15 +1434,33 @@
       </c>
       <c r="AO5" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR5" t="n">
+        <v>1498000</v>
+      </c>
+      <c r="AS5" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP5" t="inlineStr">
+      <c r="AT5" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ5" t="inlineStr">
+      <c r="AU5" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '4', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '4', 'href': None}]</t>
         </is>
@@ -1382,7 +1474,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>594b617c-1c12-4b59-a161-3b855ace2697</t>
+          <t>94d7f750-1494-430b-8178-f828dd9b7995</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1392,7 +1484,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:22:00.000Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -1405,7 +1497,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.notion.so/5-594b617c1c124b59a1613b855ace2697</t>
+          <t>https://www.notion.so/5-94d7f7501494430b8178f828dd9b7995</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
@@ -1541,15 +1633,33 @@
       </c>
       <c r="AO6" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP6" t="inlineStr">
+      <c r="AT6" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ6" t="inlineStr">
+      <c r="AU6" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '5', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '5', 'href': None}]</t>
         </is>
@@ -1563,7 +1673,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2f779725-2184-4679-954f-d9057ac30b88</t>
+          <t>594b617c-1c12-4b59-a161-3b855ace2697</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1573,7 +1683,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:22:00.000Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -1586,7 +1696,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.notion.so/6-2f77972521844679954fd9057ac30b88</t>
+          <t>https://www.notion.so/6-594b617c1c124b59a1613b855ace2697</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
@@ -1722,15 +1832,33 @@
       </c>
       <c r="AO7" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP7" t="inlineStr">
+      <c r="AT7" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ7" t="inlineStr">
+      <c r="AU7" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '6', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '6', 'href': None}]</t>
         </is>
@@ -1744,17 +1872,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>d2550ac2-132f-49ff-ae25-eaca9136f3e4</t>
+          <t>2f779725-2184-4679-954f-d9057ac30b88</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2024-06-26T11:55:00.000Z</t>
+          <t>2024-06-30T15:24:00.000Z</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:22:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -1767,7 +1895,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.notion.so/7-d2550ac2132f49ffae25eaca9136f3e4</t>
+          <t>https://www.notion.so/7-2f77972521844679954fd9057ac30b88</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
@@ -1903,15 +2031,33 @@
       </c>
       <c r="AO8" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR8" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="AS8" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP8" t="inlineStr">
+      <c r="AT8" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ8" t="inlineStr">
+      <c r="AU8" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '7', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '7', 'href': None}]</t>
         </is>
@@ -1925,17 +2071,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>004ae277-0f96-4f1c-acb0-13a1cf8d7cc0</t>
+          <t>d2550ac2-132f-49ff-ae25-eaca9136f3e4</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2024-06-26T01:42:00.000Z</t>
+          <t>2024-06-26T11:55:00.000Z</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:22:00.000Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -1948,7 +2094,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.notion.so/8-004ae2770f964f1cacb013a1cf8d7cc0</t>
+          <t>https://www.notion.so/8-d2550ac2132f49ffae25eaca9136f3e4</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -2084,15 +2230,33 @@
       </c>
       <c r="AO9" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ9" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR9" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="AS9" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP9" t="inlineStr">
+      <c r="AT9" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ9" t="inlineStr">
+      <c r="AU9" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '8', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '8', 'href': None}]</t>
         </is>
@@ -2106,17 +2270,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3c276d55-7b72-423e-8f84-5129c576bb8c</t>
+          <t>004ae277-0f96-4f1c-acb0-13a1cf8d7cc0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2024-06-26T01:41:00.000Z</t>
+          <t>2024-06-26T01:42:00.000Z</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:22:00.000Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -2129,7 +2293,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.notion.so/9-3c276d557b72423e8f845129c576bb8c</t>
+          <t>https://www.notion.so/9-004ae2770f964f1cacb013a1cf8d7cc0</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -2265,15 +2429,33 @@
       </c>
       <c r="AO10" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR10" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="AS10" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP10" t="inlineStr">
+      <c r="AT10" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ10" t="inlineStr">
+      <c r="AU10" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '9', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '9', 'href': None}]</t>
         </is>
@@ -2287,7 +2469,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>6b50a32b-5db4-4167-be33-8a430747a091</t>
+          <t>3c276d55-7b72-423e-8f84-5129c576bb8c</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2297,7 +2479,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:22:00.000Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -2310,7 +2492,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://www.notion.so/10-6b50a32b5db44167be338a430747a091</t>
+          <t>https://www.notion.so/10-3c276d557b72423e8f845129c576bb8c</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
@@ -2446,15 +2628,33 @@
       </c>
       <c r="AO11" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP11" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ11" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR11" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="AS11" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP11" t="inlineStr">
+      <c r="AT11" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ11" t="inlineStr">
+      <c r="AU11" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '10', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '10', 'href': None}]</t>
         </is>
@@ -2468,7 +2668,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>39facd95-bd4d-4426-90e7-8a4d9968d5e3</t>
+          <t>6b50a32b-5db4-4167-be33-8a430747a091</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2478,7 +2678,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:22:00.000Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -2491,7 +2691,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.notion.so/11-39facd95bd4d442690e78a4d9968d5e3</t>
+          <t>https://www.notion.so/11-6b50a32b5db44167be338a430747a091</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -2627,15 +2827,33 @@
       </c>
       <c r="AO12" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP12" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ12" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP12" t="inlineStr">
+      <c r="AT12" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ12" t="inlineStr">
+      <c r="AU12" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '11', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '11', 'href': None}]</t>
         </is>
@@ -2649,7 +2867,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>584ac372-86fe-4fcb-85b9-7b563f2d0fbd</t>
+          <t>39facd95-bd4d-4426-90e7-8a4d9968d5e3</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2659,7 +2877,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:22:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -2672,7 +2890,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://www.notion.so/12-584ac37286fe4fcb85b97b563f2d0fbd</t>
+          <t>https://www.notion.so/12-39facd95bd4d442690e78a4d9968d5e3</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
@@ -2808,15 +3026,33 @@
       </c>
       <c r="AO13" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP13" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ13" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR13" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="AS13" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP13" t="inlineStr">
+      <c r="AT13" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ13" t="inlineStr">
+      <c r="AU13" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '12', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '12', 'href': None}]</t>
         </is>
@@ -2830,17 +3066,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>9e960e79-60a7-46dd-9260-80dea0b94e8e</t>
+          <t>584ac372-86fe-4fcb-85b9-7b563f2d0fbd</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2024-06-25T15:46:00.000Z</t>
+          <t>2024-06-26T01:41:00.000Z</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:22:00.000Z</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -2853,7 +3089,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://www.notion.so/13-9e960e7960a746dd926080dea0b94e8e</t>
+          <t>https://www.notion.so/13-584ac37286fe4fcb85b97b563f2d0fbd</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -2989,15 +3225,33 @@
       </c>
       <c r="AO14" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP14" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ14" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP14" t="inlineStr">
+      <c r="AT14" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ14" t="inlineStr">
+      <c r="AU14" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '13', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '13', 'href': None}]</t>
         </is>
@@ -3011,7 +3265,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>82ce8aa2-3f83-4a5a-8bb4-8b6e0fa431d4</t>
+          <t>9e960e79-60a7-46dd-9260-80dea0b94e8e</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -3021,7 +3275,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:22:00.000Z</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -3034,7 +3288,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://www.notion.so/14-82ce8aa23f834a5a8bb48b6e0fa431d4</t>
+          <t>https://www.notion.so/14-9e960e7960a746dd926080dea0b94e8e</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -3170,15 +3424,33 @@
       </c>
       <c r="AO15" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP15" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ15" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP15" t="inlineStr">
+      <c r="AT15" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ15" t="inlineStr">
+      <c r="AU15" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '14', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '14', 'href': None}]</t>
         </is>
@@ -3192,7 +3464,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>f73d7cb7-2537-4af8-97a2-02fc4ab15d9e</t>
+          <t>82ce8aa2-3f83-4a5a-8bb4-8b6e0fa431d4</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -3202,7 +3474,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:22:00.000Z</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -3215,7 +3487,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://www.notion.so/15-f73d7cb725374af897a202fc4ab15d9e</t>
+          <t>https://www.notion.so/15-82ce8aa23f834a5a8bb48b6e0fa431d4</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
@@ -3351,15 +3623,33 @@
       </c>
       <c r="AO16" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP16" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ16" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP16" t="inlineStr">
+      <c r="AT16" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ16" t="inlineStr">
+      <c r="AU16" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '15', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '15', 'href': None}]</t>
         </is>
@@ -3373,7 +3663,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>96b2ae74-933b-4a59-b431-8f36dd90de80</t>
+          <t>f73d7cb7-2537-4af8-97a2-02fc4ab15d9e</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -3383,7 +3673,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:22:00.000Z</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -3396,7 +3686,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://www.notion.so/16-96b2ae74933b4a59b4318f36dd90de80</t>
+          <t>https://www.notion.so/16-f73d7cb725374af897a202fc4ab15d9e</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -3532,15 +3822,33 @@
       </c>
       <c r="AO17" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP17" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ17" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP17" t="inlineStr">
+      <c r="AT17" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ17" t="inlineStr">
+      <c r="AU17" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '16', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '16', 'href': None}]</t>
         </is>
@@ -3554,7 +3862,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>8ddf806c-8a8b-4528-b218-2039b0175052</t>
+          <t>96b2ae74-933b-4a59-b431-8f36dd90de80</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -3564,7 +3872,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:22:00.000Z</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -3577,7 +3885,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://www.notion.so/17-8ddf806c8a8b4528b2182039b0175052</t>
+          <t>https://www.notion.so/17-96b2ae74933b4a59b4318f36dd90de80</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -3713,15 +4021,33 @@
       </c>
       <c r="AO18" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP18" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ18" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR18" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="AS18" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP18" t="inlineStr">
+      <c r="AT18" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ18" t="inlineStr">
+      <c r="AU18" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '17', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '17', 'href': None}]</t>
         </is>
@@ -3735,7 +4061,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2990b1ef-c2ec-4fc0-a44d-b8bac4db74b9</t>
+          <t>8ddf806c-8a8b-4528-b218-2039b0175052</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -3745,7 +4071,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:22:00.000Z</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -3758,7 +4084,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://www.notion.so/18-2990b1efc2ec4fc0a44db8bac4db74b9</t>
+          <t>https://www.notion.so/18-8ddf806c8a8b4528b2182039b0175052</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -3894,15 +4220,33 @@
       </c>
       <c r="AO19" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP19" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ19" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS19" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP19" t="inlineStr">
+      <c r="AT19" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ19" t="inlineStr">
+      <c r="AU19" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '18', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '18', 'href': None}]</t>
         </is>
@@ -3916,7 +4260,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>7f37cb5c-5821-42ea-a19b-8910fba84fb5</t>
+          <t>2990b1ef-c2ec-4fc0-a44d-b8bac4db74b9</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -3926,7 +4270,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -3939,7 +4283,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://www.notion.so/19-7f37cb5c582142eaa19b8910fba84fb5</t>
+          <t>https://www.notion.so/19-2990b1efc2ec4fc0a44db8bac4db74b9</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -4075,15 +4419,33 @@
       </c>
       <c r="AO20" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP20" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ20" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS20" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP20" t="inlineStr">
+      <c r="AT20" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ20" t="inlineStr">
+      <c r="AU20" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '19', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '19', 'href': None}]</t>
         </is>
@@ -4097,7 +4459,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0b7379bc-f352-4302-a3e8-8df0ea8dc0d5</t>
+          <t>7f37cb5c-5821-42ea-a19b-8910fba84fb5</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -4107,7 +4469,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -4120,7 +4482,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://www.notion.so/20-0b7379bcf3524302a3e88df0ea8dc0d5</t>
+          <t>https://www.notion.so/20-7f37cb5c582142eaa19b8910fba84fb5</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -4256,15 +4618,33 @@
       </c>
       <c r="AO21" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP21" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ21" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP21" t="inlineStr">
+      <c r="AT21" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ21" t="inlineStr">
+      <c r="AU21" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '20', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '20', 'href': None}]</t>
         </is>
@@ -4278,7 +4658,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>b379d1e4-550e-4cb2-af0c-b6810ff97bb8</t>
+          <t>0b7379bc-f352-4302-a3e8-8df0ea8dc0d5</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -4288,7 +4668,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -4301,7 +4681,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://www.notion.so/21-b379d1e4550e4cb2af0cb6810ff97bb8</t>
+          <t>https://www.notion.so/21-0b7379bcf3524302a3e88df0ea8dc0d5</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
@@ -4437,15 +4817,33 @@
       </c>
       <c r="AO22" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP22" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ22" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS22" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP22" t="inlineStr">
+      <c r="AT22" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ22" t="inlineStr">
+      <c r="AU22" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '21', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '21', 'href': None}]</t>
         </is>
@@ -4459,7 +4857,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3646bf89-7b7c-46b0-8c14-3ac95984359e</t>
+          <t>b379d1e4-550e-4cb2-af0c-b6810ff97bb8</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -4469,7 +4867,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -4482,7 +4880,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://www.notion.so/22-3646bf897b7c46b08c143ac95984359e</t>
+          <t>https://www.notion.so/22-b379d1e4550e4cb2af0cb6810ff97bb8</t>
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
@@ -4618,15 +5016,33 @@
       </c>
       <c r="AO23" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP23" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ23" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS23" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP23" t="inlineStr">
+      <c r="AT23" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ23" t="inlineStr">
+      <c r="AU23" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '22', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '22', 'href': None}]</t>
         </is>
@@ -4640,7 +5056,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>b10005d8-518d-4edd-bc59-8449a5129fd8</t>
+          <t>3646bf89-7b7c-46b0-8c14-3ac95984359e</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -4650,7 +5066,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -4663,7 +5079,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://www.notion.so/23-b10005d8518d4eddbc598449a5129fd8</t>
+          <t>https://www.notion.so/23-3646bf897b7c46b08c143ac95984359e</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
@@ -4799,15 +5215,33 @@
       </c>
       <c r="AO24" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP24" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ24" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS24" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP24" t="inlineStr">
+      <c r="AT24" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ24" t="inlineStr">
+      <c r="AU24" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '23', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '23', 'href': None}]</t>
         </is>
@@ -4821,7 +5255,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>f06f8dd5-e07d-4056-914b-088f2bf058fa</t>
+          <t>b10005d8-518d-4edd-bc59-8449a5129fd8</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -4831,7 +5265,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -4844,7 +5278,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://www.notion.so/24-f06f8dd5e07d4056914b088f2bf058fa</t>
+          <t>https://www.notion.so/24-b10005d8518d4eddbc598449a5129fd8</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
@@ -4980,15 +5414,33 @@
       </c>
       <c r="AO25" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP25" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ25" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS25" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP25" t="inlineStr">
+      <c r="AT25" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ25" t="inlineStr">
+      <c r="AU25" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '24', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '24', 'href': None}]</t>
         </is>
@@ -5002,7 +5454,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>380732e8-c5bd-46b8-bff1-9fbd6f6c42f4</t>
+          <t>f06f8dd5-e07d-4056-914b-088f2bf058fa</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -5012,7 +5464,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -5025,7 +5477,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://www.notion.so/25-380732e8c5bd46b8bff19fbd6f6c42f4</t>
+          <t>https://www.notion.so/25-f06f8dd5e07d4056914b088f2bf058fa</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
@@ -5161,15 +5613,33 @@
       </c>
       <c r="AO26" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP26" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ26" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS26" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP26" t="inlineStr">
+      <c r="AT26" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ26" t="inlineStr">
+      <c r="AU26" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '25', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '25', 'href': None}]</t>
         </is>
@@ -5183,7 +5653,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>e33e5d89-8000-4fdf-81c1-18a3d5babcb5</t>
+          <t>380732e8-c5bd-46b8-bff1-9fbd6f6c42f4</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -5193,7 +5663,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -5206,7 +5676,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://www.notion.so/26-e33e5d8980004fdf81c118a3d5babcb5</t>
+          <t>https://www.notion.so/26-380732e8c5bd46b8bff19fbd6f6c42f4</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
@@ -5342,15 +5812,33 @@
       </c>
       <c r="AO27" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP27" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ27" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS27" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP27" t="inlineStr">
+      <c r="AT27" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ27" t="inlineStr">
+      <c r="AU27" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '26', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '26', 'href': None}]</t>
         </is>
@@ -5364,7 +5852,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>a43add4c-e37b-465c-a76a-0282423a6997</t>
+          <t>e33e5d89-8000-4fdf-81c1-18a3d5babcb5</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -5374,7 +5862,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -5387,7 +5875,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://www.notion.so/27-a43add4ce37b465ca76a0282423a6997</t>
+          <t>https://www.notion.so/27-e33e5d8980004fdf81c118a3d5babcb5</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
@@ -5523,15 +6011,33 @@
       </c>
       <c r="AO28" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP28" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ28" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS28" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP28" t="inlineStr">
+      <c r="AT28" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ28" t="inlineStr">
+      <c r="AU28" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '27', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '27', 'href': None}]</t>
         </is>
@@ -5545,7 +6051,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0f6131e3-cc67-4a48-8b6d-de4ef7d1b40f</t>
+          <t>a43add4c-e37b-465c-a76a-0282423a6997</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -5555,7 +6061,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -5568,7 +6074,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://www.notion.so/28-0f6131e3cc674a488b6dde4ef7d1b40f</t>
+          <t>https://www.notion.so/28-a43add4ce37b465ca76a0282423a6997</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -5704,15 +6210,33 @@
       </c>
       <c r="AO29" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP29" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ29" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS29" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP29" t="inlineStr">
+      <c r="AT29" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ29" t="inlineStr">
+      <c r="AU29" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '28', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '28', 'href': None}]</t>
         </is>
@@ -5726,7 +6250,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>80e96903-d54f-4d06-ad2f-a980d77dccb2</t>
+          <t>0f6131e3-cc67-4a48-8b6d-de4ef7d1b40f</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -5736,7 +6260,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -5749,7 +6273,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://www.notion.so/29-80e96903d54f4d06ad2fa980d77dccb2</t>
+          <t>https://www.notion.so/29-0f6131e3cc674a488b6dde4ef7d1b40f</t>
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
@@ -5885,15 +6409,33 @@
       </c>
       <c r="AO30" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP30" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ30" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS30" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP30" t="inlineStr">
+      <c r="AT30" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ30" t="inlineStr">
+      <c r="AU30" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '29', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '29', 'href': None}]</t>
         </is>
@@ -5907,7 +6449,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ec05a2ee-b7a6-4a55-bb1f-a891a55add0a</t>
+          <t>80e96903-d54f-4d06-ad2f-a980d77dccb2</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -5917,7 +6459,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -5930,7 +6472,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://www.notion.so/30-ec05a2eeb7a64a55bb1fa891a55add0a</t>
+          <t>https://www.notion.so/30-80e96903d54f4d06ad2fa980d77dccb2</t>
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
@@ -6066,15 +6608,33 @@
       </c>
       <c r="AO31" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP31" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ31" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR31" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="AS31" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP31" t="inlineStr">
+      <c r="AT31" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ31" t="inlineStr">
+      <c r="AU31" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '30', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '30', 'href': None}]</t>
         </is>
@@ -6088,7 +6648,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>c3840748-0026-48d1-85e6-db7edb3c0504</t>
+          <t>ec05a2ee-b7a6-4a55-bb1f-a891a55add0a</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -6098,7 +6658,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -6111,7 +6671,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://www.notion.so/31-c3840748002648d185e6db7edb3c0504</t>
+          <t>https://www.notion.so/31-ec05a2eeb7a64a55bb1fa891a55add0a</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -6247,15 +6807,33 @@
       </c>
       <c r="AO32" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP32" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ32" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS32" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP32" t="inlineStr">
+      <c r="AT32" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ32" t="inlineStr">
+      <c r="AU32" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '31', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '31', 'href': None}]</t>
         </is>
@@ -6269,7 +6847,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>e41d1598-1d6c-4a38-a5ed-13a3bf7d0bc7</t>
+          <t>c3840748-0026-48d1-85e6-db7edb3c0504</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -6279,7 +6857,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -6292,7 +6870,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://www.notion.so/32-e41d15981d6c4a38a5ed13a3bf7d0bc7</t>
+          <t>https://www.notion.so/32-c3840748002648d185e6db7edb3c0504</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -6428,15 +7006,33 @@
       </c>
       <c r="AO33" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP33" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ33" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS33" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP33" t="inlineStr">
+      <c r="AT33" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ33" t="inlineStr">
+      <c r="AU33" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '32', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '32', 'href': None}]</t>
         </is>
@@ -6450,7 +7046,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>f935ce96-d7be-4cac-881b-b804231d5eea</t>
+          <t>e41d1598-1d6c-4a38-a5ed-13a3bf7d0bc7</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -6460,7 +7056,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -6473,7 +7069,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://www.notion.so/33-f935ce96d7be4cac881bb804231d5eea</t>
+          <t>https://www.notion.so/33-e41d15981d6c4a38a5ed13a3bf7d0bc7</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
@@ -6609,15 +7205,33 @@
       </c>
       <c r="AO34" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP34" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ34" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR34" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="AS34" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP34" t="inlineStr">
+      <c r="AT34" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ34" t="inlineStr">
+      <c r="AU34" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '33', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '33', 'href': None}]</t>
         </is>
@@ -6631,7 +7245,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>af426fdc-06e6-4499-90da-573a73641241</t>
+          <t>f935ce96-d7be-4cac-881b-b804231d5eea</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -6641,7 +7255,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -6654,7 +7268,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://www.notion.so/34-af426fdc06e6449990da573a73641241</t>
+          <t>https://www.notion.so/34-f935ce96d7be4cac881bb804231d5eea</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
@@ -6790,15 +7404,33 @@
       </c>
       <c r="AO35" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP35" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ35" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR35" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="AS35" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP35" t="inlineStr">
+      <c r="AT35" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ35" t="inlineStr">
+      <c r="AU35" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '34', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '34', 'href': None}]</t>
         </is>
@@ -6812,7 +7444,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>84b1b189-fbd5-4f8f-b3f7-593faaa1042b</t>
+          <t>af426fdc-06e6-4499-90da-573a73641241</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -6822,7 +7454,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2024-06-30T15:33:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -6835,7 +7467,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://www.notion.so/35-84b1b189fbd54f8fb3f7593faaa1042b</t>
+          <t>https://www.notion.so/35-af426fdc06e6449990da573a73641241</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
@@ -6971,15 +7603,33 @@
       </c>
       <c r="AO36" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP36" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ36" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR36" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="AS36" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP36" t="inlineStr">
+      <c r="AT36" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ36" t="inlineStr">
+      <c r="AU36" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '35', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '35', 'href': None}]</t>
         </is>
@@ -6993,7 +7643,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2c707af5-923c-4344-98d5-e3bb47c7e443</t>
+          <t>84b1b189-fbd5-4f8f-b3f7-593faaa1042b</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -7003,7 +7653,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2024-06-30T15:33:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -7016,7 +7666,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://www.notion.so/36-2c707af5923c434498d5e3bb47c7e443</t>
+          <t>https://www.notion.so/36-84b1b189fbd54f8fb3f7593faaa1042b</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
@@ -7152,15 +7802,33 @@
       </c>
       <c r="AO37" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP37" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ37" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS37" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP37" t="inlineStr">
+      <c r="AT37" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ37" t="inlineStr">
+      <c r="AU37" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '36', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '36', 'href': None}]</t>
         </is>
@@ -7174,7 +7842,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>801e99d3-7aef-4e90-b819-9626450680b6</t>
+          <t>2c707af5-923c-4344-98d5-e3bb47c7e443</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -7184,7 +7852,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2024-06-30T15:33:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -7197,7 +7865,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://www.notion.so/37-801e99d37aef4e90b8199626450680b6</t>
+          <t>https://www.notion.so/37-2c707af5923c434498d5e3bb47c7e443</t>
         </is>
       </c>
       <c r="J38" t="inlineStr"/>
@@ -7333,15 +8001,33 @@
       </c>
       <c r="AO38" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP38" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ38" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS38" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP38" t="inlineStr">
+      <c r="AT38" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ38" t="inlineStr">
+      <c r="AU38" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '37', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '37', 'href': None}]</t>
         </is>
@@ -7355,7 +8041,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>589c8f49-bcb1-4fe9-9280-01f50e7f65e9</t>
+          <t>801e99d3-7aef-4e90-b819-9626450680b6</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -7365,7 +8051,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2024-06-30T15:33:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -7378,7 +8064,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://www.notion.so/38-589c8f49bcb14fe9928001f50e7f65e9</t>
+          <t>https://www.notion.so/38-801e99d37aef4e90b8199626450680b6</t>
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
@@ -7514,15 +8200,33 @@
       </c>
       <c r="AO39" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP39" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ39" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS39" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP39" t="inlineStr">
+      <c r="AT39" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ39" t="inlineStr">
+      <c r="AU39" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '38', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '38', 'href': None}]</t>
         </is>
@@ -7536,7 +8240,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0952e540-9579-4e94-896c-937858a124d1</t>
+          <t>589c8f49-bcb1-4fe9-9280-01f50e7f65e9</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -7546,7 +8250,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2024-06-30T15:33:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -7559,7 +8263,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://www.notion.so/39-0952e54095794e94896c937858a124d1</t>
+          <t>https://www.notion.so/39-589c8f49bcb14fe9928001f50e7f65e9</t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
@@ -7695,15 +8399,33 @@
       </c>
       <c r="AO40" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP40" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ40" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR40" t="n">
+        <v>4800000</v>
+      </c>
+      <c r="AS40" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP40" t="inlineStr">
+      <c r="AT40" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ40" t="inlineStr">
+      <c r="AU40" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '39', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '39', 'href': None}]</t>
         </is>
@@ -7717,7 +8439,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>f5529a3c-c2cd-4cc3-9daf-faee511ed521</t>
+          <t>0952e540-9579-4e94-896c-937858a124d1</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -7727,7 +8449,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2024-06-30T15:33:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -7740,7 +8462,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://www.notion.so/40-f5529a3cc2cd4cc39daffaee511ed521</t>
+          <t>https://www.notion.so/40-0952e54095794e94896c937858a124d1</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
@@ -7876,15 +8598,33 @@
       </c>
       <c r="AO41" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP41" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ41" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS41" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP41" t="inlineStr">
+      <c r="AT41" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ41" t="inlineStr">
+      <c r="AU41" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '40', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '40', 'href': None}]</t>
         </is>
@@ -7898,7 +8638,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>f492049b-ec0e-4cc3-ba2a-ff05d9bc1b9b</t>
+          <t>f5529a3c-c2cd-4cc3-9daf-faee511ed521</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -7908,7 +8648,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2024-06-30T15:33:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -7921,7 +8661,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://www.notion.so/41-f492049bec0e4cc3ba2aff05d9bc1b9b</t>
+          <t>https://www.notion.so/41-f5529a3cc2cd4cc39daffaee511ed521</t>
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
@@ -8057,15 +8797,33 @@
       </c>
       <c r="AO42" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP42" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ42" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS42" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP42" t="inlineStr">
+      <c r="AT42" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ42" t="inlineStr">
+      <c r="AU42" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '41', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '41', 'href': None}]</t>
         </is>
@@ -8079,7 +8837,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1aa2fc39-ea35-41ca-8f39-b083de502a63</t>
+          <t>f492049b-ec0e-4cc3-ba2a-ff05d9bc1b9b</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -8089,7 +8847,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2024-06-30T15:33:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -8102,7 +8860,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://www.notion.so/42-1aa2fc39ea3541ca8f39b083de502a63</t>
+          <t>https://www.notion.so/42-f492049bec0e4cc3ba2aff05d9bc1b9b</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
@@ -8238,15 +8996,33 @@
       </c>
       <c r="AO43" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP43" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ43" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS43" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP43" t="inlineStr">
+      <c r="AT43" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ43" t="inlineStr">
+      <c r="AU43" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '42', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '42', 'href': None}]</t>
         </is>
@@ -8260,7 +9036,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>cb6000f4-2feb-4a98-8144-4628f0f82d9e</t>
+          <t>1aa2fc39-ea35-41ca-8f39-b083de502a63</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -8270,7 +9046,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2024-06-30T15:33:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -8283,7 +9059,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://www.notion.so/43-cb6000f42feb4a9881444628f0f82d9e</t>
+          <t>https://www.notion.so/43-1aa2fc39ea3541ca8f39b083de502a63</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -8419,15 +9195,33 @@
       </c>
       <c r="AO44" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP44" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ44" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR44" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="AS44" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP44" t="inlineStr">
+      <c r="AT44" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ44" t="inlineStr">
+      <c r="AU44" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '43', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '43', 'href': None}]</t>
         </is>
@@ -8441,7 +9235,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>e541355e-46b0-4e13-add8-1a769ba877c5</t>
+          <t>cb6000f4-2feb-4a98-8144-4628f0f82d9e</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -8451,7 +9245,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2024-06-30T15:33:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -8464,7 +9258,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://www.notion.so/44-e541355e46b04e13add81a769ba877c5</t>
+          <t>https://www.notion.so/44-cb6000f42feb4a9881444628f0f82d9e</t>
         </is>
       </c>
       <c r="J45" t="inlineStr"/>
@@ -8600,15 +9394,33 @@
       </c>
       <c r="AO45" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP45" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ45" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS45" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP45" t="inlineStr">
+      <c r="AT45" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ45" t="inlineStr">
+      <c r="AU45" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '44', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '44', 'href': None}]</t>
         </is>
@@ -8622,17 +9434,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>c515f008-b17f-48c5-878e-502c037a0818</t>
+          <t>e541355e-46b0-4e13-add8-1a769ba877c5</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2024-06-25T15:45:00.000Z</t>
+          <t>2024-06-25T15:46:00.000Z</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2024-06-30T15:33:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -8645,7 +9457,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://www.notion.so/45-c515f008b17f48c5878e502c037a0818</t>
+          <t>https://www.notion.so/45-e541355e46b04e13add81a769ba877c5</t>
         </is>
       </c>
       <c r="J46" t="inlineStr"/>
@@ -8781,15 +9593,33 @@
       </c>
       <c r="AO46" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP46" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ46" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS46" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP46" t="inlineStr">
+      <c r="AT46" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ46" t="inlineStr">
+      <c r="AU46" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '45', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '45', 'href': None}]</t>
         </is>
@@ -8803,7 +9633,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>434e47e8-b704-495b-a187-ae5b8a77bd8d</t>
+          <t>c515f008-b17f-48c5-878e-502c037a0818</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -8813,7 +9643,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2024-06-30T15:33:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -8826,7 +9656,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://www.notion.so/46-434e47e8b704495ba187ae5b8a77bd8d</t>
+          <t>https://www.notion.so/46-c515f008b17f48c5878e502c037a0818</t>
         </is>
       </c>
       <c r="J47" t="inlineStr"/>
@@ -8962,15 +9792,33 @@
       </c>
       <c r="AO47" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP47" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ47" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS47" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP47" t="inlineStr">
+      <c r="AT47" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ47" t="inlineStr">
+      <c r="AU47" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '46', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '46', 'href': None}]</t>
         </is>
@@ -8984,7 +9832,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>d6e37602-1487-486e-beb8-6c14b5f3edca</t>
+          <t>434e47e8-b704-495b-a187-ae5b8a77bd8d</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -8994,7 +9842,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2024-06-30T15:33:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -9007,7 +9855,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://www.notion.so/47-d6e376021487486ebeb86c14b5f3edca</t>
+          <t>https://www.notion.so/47-434e47e8b704495ba187ae5b8a77bd8d</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
@@ -9143,15 +9991,33 @@
       </c>
       <c r="AO48" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP48" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ48" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR48" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="AS48" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP48" t="inlineStr">
+      <c r="AT48" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ48" t="inlineStr">
+      <c r="AU48" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '47', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '47', 'href': None}]</t>
         </is>
@@ -9165,7 +10031,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>7e00ea89-7a0f-4e22-a8dc-2776c56702cd</t>
+          <t>d6e37602-1487-486e-beb8-6c14b5f3edca</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -9175,7 +10041,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2024-06-30T15:33:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -9188,7 +10054,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://www.notion.so/48-7e00ea897a0f4e22a8dc2776c56702cd</t>
+          <t>https://www.notion.so/48-d6e376021487486ebeb86c14b5f3edca</t>
         </is>
       </c>
       <c r="J49" t="inlineStr"/>
@@ -9324,15 +10190,33 @@
       </c>
       <c r="AO49" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP49" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ49" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS49" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP49" t="inlineStr">
+      <c r="AT49" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ49" t="inlineStr">
+      <c r="AU49" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '48', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '48', 'href': None}]</t>
         </is>
@@ -9346,7 +10230,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>7f0916e4-0d04-4a1d-ae32-ef60f001f862</t>
+          <t>7e00ea89-7a0f-4e22-a8dc-2776c56702cd</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -9356,7 +10240,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2024-06-30T15:33:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -9369,7 +10253,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://www.notion.so/49-7f0916e40d044a1dae32ef60f001f862</t>
+          <t>https://www.notion.so/49-7e00ea897a0f4e22a8dc2776c56702cd</t>
         </is>
       </c>
       <c r="J50" t="inlineStr"/>
@@ -9505,15 +10389,33 @@
       </c>
       <c r="AO50" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP50" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ50" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR50" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="AS50" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP50" t="inlineStr">
+      <c r="AT50" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ50" t="inlineStr">
+      <c r="AU50" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '49', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '49', 'href': None}]</t>
         </is>
@@ -9527,7 +10429,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>168276c3-ef55-4ff9-9b8e-ea4af91d3dbe</t>
+          <t>7f0916e4-0d04-4a1d-ae32-ef60f001f862</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -9537,7 +10439,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2024-06-30T15:33:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -9550,7 +10452,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://www.notion.so/50-168276c3ef554ff99b8eea4af91d3dbe</t>
+          <t>https://www.notion.so/50-7f0916e40d044a1dae32ef60f001f862</t>
         </is>
       </c>
       <c r="J51" t="inlineStr"/>
@@ -9686,15 +10588,33 @@
       </c>
       <c r="AO51" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP51" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ51" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS51" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP51" t="inlineStr">
+      <c r="AT51" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ51" t="inlineStr">
+      <c r="AU51" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '50', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '50', 'href': None}]</t>
         </is>
@@ -9708,7 +10628,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>d13bcc52-f036-4a4f-82a2-2a6e310eee1e</t>
+          <t>168276c3-ef55-4ff9-9b8e-ea4af91d3dbe</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -9718,7 +10638,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2024-06-30T15:33:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -9731,7 +10651,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://www.notion.so/51-d13bcc52f0364a4f82a22a6e310eee1e</t>
+          <t>https://www.notion.so/51-168276c3ef554ff99b8eea4af91d3dbe</t>
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
@@ -9867,15 +10787,33 @@
       </c>
       <c r="AO52" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP52" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ52" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS52" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP52" t="inlineStr">
+      <c r="AT52" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ52" t="inlineStr">
+      <c r="AU52" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '51', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '51', 'href': None}]</t>
         </is>
@@ -9889,7 +10827,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>109069f6-0fa0-4a94-a905-95a32e8bf30d</t>
+          <t>d13bcc52-f036-4a4f-82a2-2a6e310eee1e</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -9899,7 +10837,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2024-06-30T15:33:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -9912,7 +10850,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://www.notion.so/52-109069f60fa04a94a90595a32e8bf30d</t>
+          <t>https://www.notion.so/52-d13bcc52f0364a4f82a22a6e310eee1e</t>
         </is>
       </c>
       <c r="J53" t="inlineStr"/>
@@ -10048,15 +10986,33 @@
       </c>
       <c r="AO53" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP53" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ53" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS53" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP53" t="inlineStr">
+      <c r="AT53" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ53" t="inlineStr">
+      <c r="AU53" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '52', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '52', 'href': None}]</t>
         </is>
@@ -10070,7 +11026,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>7cafd8bf-3912-4c28-aebb-2c01fe4a14d9</t>
+          <t>109069f6-0fa0-4a94-a905-95a32e8bf30d</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -10080,7 +11036,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2024-06-30T15:33:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -10093,7 +11049,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://www.notion.so/53-7cafd8bf39124c28aebb2c01fe4a14d9</t>
+          <t>https://www.notion.so/53-109069f60fa04a94a90595a32e8bf30d</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
@@ -10229,15 +11185,33 @@
       </c>
       <c r="AO54" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP54" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ54" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS54" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP54" t="inlineStr">
+      <c r="AT54" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ54" t="inlineStr">
+      <c r="AU54" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '53', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '53', 'href': None}]</t>
         </is>
@@ -10251,7 +11225,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>c5aa38aa-b7c8-4ffa-89ee-93c581d320cb</t>
+          <t>7cafd8bf-3912-4c28-aebb-2c01fe4a14d9</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -10261,7 +11235,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2024-06-30T15:33:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -10274,7 +11248,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://www.notion.so/54-c5aa38aab7c84ffa89ee93c581d320cb</t>
+          <t>https://www.notion.so/54-7cafd8bf39124c28aebb2c01fe4a14d9</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
@@ -10410,15 +11384,33 @@
       </c>
       <c r="AO55" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP55" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ55" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR55" t="n">
+        <v>7400000</v>
+      </c>
+      <c r="AS55" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP55" t="inlineStr">
+      <c r="AT55" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ55" t="inlineStr">
+      <c r="AU55" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '54', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '54', 'href': None}]</t>
         </is>
@@ -10432,7 +11424,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>6daa2647-cb00-496e-b719-cd733569f662</t>
+          <t>c5aa38aa-b7c8-4ffa-89ee-93c581d320cb</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -10442,7 +11434,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2024-06-30T15:33:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -10455,7 +11447,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://www.notion.so/55-6daa2647cb00496eb719cd733569f662</t>
+          <t>https://www.notion.so/55-c5aa38aab7c84ffa89ee93c581d320cb</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
@@ -10591,15 +11583,33 @@
       </c>
       <c r="AO56" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP56" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ56" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS56" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP56" t="inlineStr">
+      <c r="AT56" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ56" t="inlineStr">
+      <c r="AU56" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '55', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '55', 'href': None}]</t>
         </is>
@@ -10613,7 +11623,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>fc89e627-ac81-4d73-8eb7-6c98511632f3</t>
+          <t>6daa2647-cb00-496e-b719-cd733569f662</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -10623,7 +11633,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2024-06-30T15:33:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -10636,7 +11646,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://www.notion.so/56-fc89e627ac814d738eb76c98511632f3</t>
+          <t>https://www.notion.so/56-6daa2647cb00496eb719cd733569f662</t>
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
@@ -10772,15 +11782,33 @@
       </c>
       <c r="AO57" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP57" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ57" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS57" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP57" t="inlineStr">
+      <c r="AT57" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ57" t="inlineStr">
+      <c r="AU57" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '56', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '56', 'href': None}]</t>
         </is>
@@ -10794,7 +11822,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>111ad337-40f3-4b55-86b8-31259b1570fe</t>
+          <t>fc89e627-ac81-4d73-8eb7-6c98511632f3</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -10804,7 +11832,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2024-06-30T15:33:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -10817,7 +11845,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://www.notion.so/57-111ad33740f34b5586b831259b1570fe</t>
+          <t>https://www.notion.so/57-fc89e627ac814d738eb76c98511632f3</t>
         </is>
       </c>
       <c r="J58" t="inlineStr"/>
@@ -10953,15 +11981,33 @@
       </c>
       <c r="AO58" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP58" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ58" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS58" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP58" t="inlineStr">
+      <c r="AT58" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ58" t="inlineStr">
+      <c r="AU58" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '57', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '57', 'href': None}]</t>
         </is>
@@ -10975,7 +12021,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>5c0f41ae-978e-4fab-a3e4-8af8d19c6f73</t>
+          <t>111ad337-40f3-4b55-86b8-31259b1570fe</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -10985,7 +12031,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2024-06-30T15:33:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -10998,7 +12044,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://www.notion.so/58-5c0f41ae978e4faba3e48af8d19c6f73</t>
+          <t>https://www.notion.so/58-111ad33740f34b5586b831259b1570fe</t>
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
@@ -11134,15 +12180,33 @@
       </c>
       <c r="AO59" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP59" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ59" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR59" t="n">
+        <v>12000000</v>
+      </c>
+      <c r="AS59" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP59" t="inlineStr">
+      <c r="AT59" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ59" t="inlineStr">
+      <c r="AU59" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '58', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '58', 'href': None}]</t>
         </is>
@@ -11156,7 +12220,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>856a3cd5-f46a-4018-9149-626d50d539ae</t>
+          <t>5c0f41ae-978e-4fab-a3e4-8af8d19c6f73</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -11166,7 +12230,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2024-06-30T15:33:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -11179,7 +12243,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://www.notion.so/59-856a3cd5f46a40189149626d50d539ae</t>
+          <t>https://www.notion.so/59-5c0f41ae978e4faba3e48af8d19c6f73</t>
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
@@ -11315,15 +12379,33 @@
       </c>
       <c r="AO60" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP60" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ60" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS60" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP60" t="inlineStr">
+      <c r="AT60" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ60" t="inlineStr">
+      <c r="AU60" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '59', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '59', 'href': None}]</t>
         </is>
@@ -11337,7 +12419,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>3ef7f7a7-7144-4602-b6ff-afe3149c76f3</t>
+          <t>856a3cd5-f46a-4018-9149-626d50d539ae</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -11347,7 +12429,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2024-06-30T15:33:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -11360,7 +12442,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://www.notion.so/60-3ef7f7a771444602b6ffafe3149c76f3</t>
+          <t>https://www.notion.so/60-856a3cd5f46a40189149626d50d539ae</t>
         </is>
       </c>
       <c r="J61" t="inlineStr"/>
@@ -11496,15 +12578,33 @@
       </c>
       <c r="AO61" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP61" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ61" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS61" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP61" t="inlineStr">
+      <c r="AT61" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ61" t="inlineStr">
+      <c r="AU61" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '60', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '60', 'href': None}]</t>
         </is>
@@ -11518,7 +12618,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>e8285e8e-bcad-4bf7-9bda-2bc436cc7c77</t>
+          <t>3ef7f7a7-7144-4602-b6ff-afe3149c76f3</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -11528,7 +12628,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2024-06-30T15:33:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
@@ -11541,7 +12641,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://www.notion.so/61-e8285e8ebcad4bf79bda2bc436cc7c77</t>
+          <t>https://www.notion.so/61-3ef7f7a771444602b6ffafe3149c76f3</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
@@ -11677,15 +12777,33 @@
       </c>
       <c r="AO62" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP62" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ62" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS62" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP62" t="inlineStr">
+      <c r="AT62" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ62" t="inlineStr">
+      <c r="AU62" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '61', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '61', 'href': None}]</t>
         </is>
@@ -11699,7 +12817,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>3d9b798d-e8d7-47da-afb7-e456bc579964</t>
+          <t>e8285e8e-bcad-4bf7-9bda-2bc436cc7c77</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -11709,7 +12827,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2024-06-30T15:33:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -11722,7 +12840,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://www.notion.so/62-3d9b798de8d747daafb7e456bc579964</t>
+          <t>https://www.notion.so/62-e8285e8ebcad4bf79bda2bc436cc7c77</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
@@ -11858,15 +12976,33 @@
       </c>
       <c r="AO63" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP63" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ63" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS63" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP63" t="inlineStr">
+      <c r="AT63" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ63" t="inlineStr">
+      <c r="AU63" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '62', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '62', 'href': None}]</t>
         </is>
@@ -11880,7 +13016,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>39475552-6400-483e-a749-c503f5bacb66</t>
+          <t>3d9b798d-e8d7-47da-afb7-e456bc579964</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -11890,7 +13026,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2024-06-30T15:33:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -11903,7 +13039,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://www.notion.so/63-394755526400483ea749c503f5bacb66</t>
+          <t>https://www.notion.so/63-3d9b798de8d747daafb7e456bc579964</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
@@ -12039,15 +13175,33 @@
       </c>
       <c r="AO64" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP64" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ64" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS64" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP64" t="inlineStr">
+      <c r="AT64" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ64" t="inlineStr">
+      <c r="AU64" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '63', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '63', 'href': None}]</t>
         </is>
@@ -12061,7 +13215,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>4fcf70d6-d25a-43d6-bf81-8042b1523735</t>
+          <t>39475552-6400-483e-a749-c503f5bacb66</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -12071,7 +13225,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2024-06-30T15:33:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -12084,7 +13238,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://www.notion.so/64-4fcf70d6d25a43d6bf818042b1523735</t>
+          <t>https://www.notion.so/64-394755526400483ea749c503f5bacb66</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
@@ -12220,15 +13374,33 @@
       </c>
       <c r="AO65" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP65" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ65" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS65" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP65" t="inlineStr">
+      <c r="AT65" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ65" t="inlineStr">
+      <c r="AU65" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '64', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '64', 'href': None}]</t>
         </is>
@@ -12242,7 +13414,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1744c014-cf66-471c-8b3e-38faec3a07e9</t>
+          <t>4fcf70d6-d25a-43d6-bf81-8042b1523735</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -12252,7 +13424,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2024-06-30T15:33:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -12265,7 +13437,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://www.notion.so/65-1744c014cf66471c8b3e38faec3a07e9</t>
+          <t>https://www.notion.so/65-4fcf70d6d25a43d6bf818042b1523735</t>
         </is>
       </c>
       <c r="J66" t="inlineStr"/>
@@ -12401,15 +13573,33 @@
       </c>
       <c r="AO66" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP66" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ66" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS66" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP66" t="inlineStr">
+      <c r="AT66" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ66" t="inlineStr">
+      <c r="AU66" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '65', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '65', 'href': None}]</t>
         </is>
@@ -12423,7 +13613,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>300d58e1-86d2-4cf3-a1a0-bf0d53b82bcf</t>
+          <t>1744c014-cf66-471c-8b3e-38faec3a07e9</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -12433,7 +13623,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2024-06-30T15:33:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
@@ -12446,7 +13636,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://www.notion.so/66-300d58e186d24cf3a1a0bf0d53b82bcf</t>
+          <t>https://www.notion.so/66-1744c014cf66471c8b3e38faec3a07e9</t>
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
@@ -12582,15 +13772,33 @@
       </c>
       <c r="AO67" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP67" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ67" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS67" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP67" t="inlineStr">
+      <c r="AT67" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ67" t="inlineStr">
+      <c r="AU67" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '66', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '66', 'href': None}]</t>
         </is>
@@ -12604,7 +13812,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>99c24a5a-826f-4151-a69f-885ecdd28821</t>
+          <t>300d58e1-86d2-4cf3-a1a0-bf0d53b82bcf</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -12614,7 +13822,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2024-06-30T15:33:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -12627,7 +13835,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://www.notion.so/67-99c24a5a826f4151a69f885ecdd28821</t>
+          <t>https://www.notion.so/67-300d58e186d24cf3a1a0bf0d53b82bcf</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
@@ -12763,15 +13971,33 @@
       </c>
       <c r="AO68" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP68" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ68" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS68" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP68" t="inlineStr">
+      <c r="AT68" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ68" t="inlineStr">
+      <c r="AU68" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '67', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '67', 'href': None}]</t>
         </is>
@@ -12785,7 +14011,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>9b80c98a-f74d-4a5a-85c1-9876e46b346c</t>
+          <t>99c24a5a-826f-4151-a69f-885ecdd28821</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -12795,7 +14021,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2024-06-30T15:33:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -12808,7 +14034,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://www.notion.so/68-9b80c98af74d4a5a85c19876e46b346c</t>
+          <t>https://www.notion.so/68-99c24a5a826f4151a69f885ecdd28821</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
@@ -12944,15 +14170,33 @@
       </c>
       <c r="AO69" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP69" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ69" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS69" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP69" t="inlineStr">
+      <c r="AT69" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ69" t="inlineStr">
+      <c r="AU69" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '68', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '68', 'href': None}]</t>
         </is>
@@ -12966,17 +14210,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>68fe2bc2-21c0-48cb-ae81-1d7f6dcc7932</t>
+          <t>9b80c98a-f74d-4a5a-85c1-9876e46b346c</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2024-06-25T15:44:00.000Z</t>
+          <t>2024-06-25T15:45:00.000Z</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2024-06-30T15:33:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
@@ -12989,7 +14233,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://www.notion.so/69-68fe2bc221c048cbae811d7f6dcc7932</t>
+          <t>https://www.notion.so/69-9b80c98af74d4a5a85c19876e46b346c</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
@@ -13125,15 +14369,33 @@
       </c>
       <c r="AO70" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP70" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ70" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS70" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP70" t="inlineStr">
+      <c r="AT70" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ70" t="inlineStr">
+      <c r="AU70" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '69', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '69', 'href': None}]</t>
         </is>
@@ -13147,7 +14409,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>94cda438-3192-4b5f-a31c-c84e0ff157cd</t>
+          <t>68fe2bc2-21c0-48cb-ae81-1d7f6dcc7932</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -13157,7 +14419,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2024-06-30T15:33:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
@@ -13170,7 +14432,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://www.notion.so/70-94cda43831924b5fa31cc84e0ff157cd</t>
+          <t>https://www.notion.so/70-68fe2bc221c048cbae811d7f6dcc7932</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
@@ -13306,15 +14568,33 @@
       </c>
       <c r="AO71" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP71" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ71" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS71" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP71" t="inlineStr">
+      <c r="AT71" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ71" t="inlineStr">
+      <c r="AU71" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '70', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '70', 'href': None}]</t>
         </is>
@@ -13328,7 +14608,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ca53893d-bfb7-4584-8516-39aef063440b</t>
+          <t>94cda438-3192-4b5f-a31c-c84e0ff157cd</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -13338,7 +14618,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2024-06-30T15:33:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
@@ -13351,7 +14631,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://www.notion.so/71-ca53893dbfb74584851639aef063440b</t>
+          <t>https://www.notion.so/71-94cda43831924b5fa31cc84e0ff157cd</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
@@ -13487,15 +14767,33 @@
       </c>
       <c r="AO72" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP72" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ72" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS72" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP72" t="inlineStr">
+      <c r="AT72" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ72" t="inlineStr">
+      <c r="AU72" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '71', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '71', 'href': None}]</t>
         </is>
@@ -13509,7 +14807,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>3a542931-2b6e-40c6-b1ba-6c4531fbffa4</t>
+          <t>ca53893d-bfb7-4584-8516-39aef063440b</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -13519,7 +14817,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2024-06-30T15:33:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
@@ -13532,7 +14830,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://www.notion.so/72-3a5429312b6e40c6b1ba6c4531fbffa4</t>
+          <t>https://www.notion.so/72-ca53893dbfb74584851639aef063440b</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
@@ -13668,15 +14966,33 @@
       </c>
       <c r="AO73" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP73" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ73" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR73" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="AS73" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP73" t="inlineStr">
+      <c r="AT73" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ73" t="inlineStr">
+      <c r="AU73" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '72', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '72', 'href': None}]</t>
         </is>
@@ -13690,7 +15006,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>4d69d396-cf6e-42ef-b972-4b7ca1bb1cec</t>
+          <t>3a542931-2b6e-40c6-b1ba-6c4531fbffa4</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -13700,7 +15016,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2024-06-30T15:33:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
@@ -13713,7 +15029,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://www.notion.so/73-4d69d396cf6e42efb9724b7ca1bb1cec</t>
+          <t>https://www.notion.so/73-3a5429312b6e40c6b1ba6c4531fbffa4</t>
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
@@ -13849,15 +15165,33 @@
       </c>
       <c r="AO74" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP74" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ74" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS74" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP74" t="inlineStr">
+      <c r="AT74" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ74" t="inlineStr">
+      <c r="AU74" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '73', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '73', 'href': None}]</t>
         </is>
@@ -13871,7 +15205,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>6b989ee4-9b14-4c20-a499-65208ae18ba5</t>
+          <t>4d69d396-cf6e-42ef-b972-4b7ca1bb1cec</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -13881,7 +15215,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2024-06-30T15:33:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
@@ -13894,7 +15228,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://www.notion.so/74-6b989ee49b144c20a49965208ae18ba5</t>
+          <t>https://www.notion.so/74-4d69d396cf6e42efb9724b7ca1bb1cec</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
@@ -14030,15 +15364,33 @@
       </c>
       <c r="AO75" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP75" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ75" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR75" t="n">
+        <v>7400000</v>
+      </c>
+      <c r="AS75" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP75" t="inlineStr">
+      <c r="AT75" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ75" t="inlineStr">
+      <c r="AU75" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '74', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '74', 'href': None}]</t>
         </is>
@@ -14052,7 +15404,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>7eb7a2aa-f1bb-4421-8aa4-518ecfff625e</t>
+          <t>6b989ee4-9b14-4c20-a499-65208ae18ba5</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -14062,7 +15414,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2024-06-30T15:33:00.000Z</t>
+          <t>2024-07-01T14:23:00.000Z</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
@@ -14075,7 +15427,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://www.notion.so/75-7eb7a2aaf1bb44218aa4518ecfff625e</t>
+          <t>https://www.notion.so/75-6b989ee49b144c20a49965208ae18ba5</t>
         </is>
       </c>
       <c r="J76" t="inlineStr"/>
@@ -14211,15 +15563,33 @@
       </c>
       <c r="AO76" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP76" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ76" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS76" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP76" t="inlineStr">
+      <c r="AT76" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ76" t="inlineStr">
+      <c r="AU76" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '75', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '75', 'href': None}]</t>
         </is>
@@ -14233,7 +15603,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2d371737-ff99-4b65-9a22-cbd894b2ac1f</t>
+          <t>7eb7a2aa-f1bb-4421-8aa4-518ecfff625e</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -14243,7 +15613,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2024-06-30T15:33:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
@@ -14256,7 +15626,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://www.notion.so/76-2d371737ff994b659a22cbd894b2ac1f</t>
+          <t>https://www.notion.so/76-7eb7a2aaf1bb44218aa4518ecfff625e</t>
         </is>
       </c>
       <c r="J77" t="inlineStr"/>
@@ -14392,15 +15762,33 @@
       </c>
       <c r="AO77" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP77" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ77" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR77" t="n">
+        <v>8386000</v>
+      </c>
+      <c r="AS77" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP77" t="inlineStr">
+      <c r="AT77" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ77" t="inlineStr">
+      <c r="AU77" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '76', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '76', 'href': None}]</t>
         </is>
@@ -14414,7 +15802,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>c5384494-b98f-4e9f-b016-3548157c2178</t>
+          <t>2d371737-ff99-4b65-9a22-cbd894b2ac1f</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -14424,7 +15812,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2024-06-30T15:33:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
@@ -14437,7 +15825,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://www.notion.so/77-c5384494b98f4e9fb0163548157c2178</t>
+          <t>https://www.notion.so/77-2d371737ff994b659a22cbd894b2ac1f</t>
         </is>
       </c>
       <c r="J78" t="inlineStr"/>
@@ -14573,15 +15961,33 @@
       </c>
       <c r="AO78" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP78" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ78" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS78" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP78" t="inlineStr">
+      <c r="AT78" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ78" t="inlineStr">
+      <c r="AU78" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '77', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '77', 'href': None}]</t>
         </is>
@@ -14595,7 +16001,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>12c869d9-2f55-4bff-8409-2cfc8fc5d429</t>
+          <t>c5384494-b98f-4e9f-b016-3548157c2178</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -14605,7 +16011,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2024-06-30T15:33:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
@@ -14618,7 +16024,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://www.notion.so/78-12c869d92f554bff84092cfc8fc5d429</t>
+          <t>https://www.notion.so/78-c5384494b98f4e9fb0163548157c2178</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
@@ -14754,15 +16160,33 @@
       </c>
       <c r="AO79" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP79" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ79" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS79" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP79" t="inlineStr">
+      <c r="AT79" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ79" t="inlineStr">
+      <c r="AU79" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '78', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '78', 'href': None}]</t>
         </is>
@@ -14776,7 +16200,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ac5a0e65-c26d-4fe6-a273-a921c749d513</t>
+          <t>12c869d9-2f55-4bff-8409-2cfc8fc5d429</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -14786,7 +16210,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2024-06-30T15:33:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
@@ -14799,7 +16223,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://www.notion.so/79-ac5a0e65c26d4fe6a273a921c749d513</t>
+          <t>https://www.notion.so/79-12c869d92f554bff84092cfc8fc5d429</t>
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
@@ -14935,15 +16359,33 @@
       </c>
       <c r="AO80" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP80" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ80" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS80" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP80" t="inlineStr">
+      <c r="AT80" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ80" t="inlineStr">
+      <c r="AU80" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '79', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '79', 'href': None}]</t>
         </is>
@@ -14957,7 +16399,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>c3c0c752-885b-4329-9404-a29b0a9efd01</t>
+          <t>ac5a0e65-c26d-4fe6-a273-a921c749d513</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -14967,7 +16409,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2024-06-30T15:33:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
@@ -14980,7 +16422,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://www.notion.so/80-c3c0c752885b43299404a29b0a9efd01</t>
+          <t>https://www.notion.so/80-ac5a0e65c26d4fe6a273a921c749d513</t>
         </is>
       </c>
       <c r="J81" t="inlineStr"/>
@@ -15116,15 +16558,33 @@
       </c>
       <c r="AO81" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP81" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ81" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS81" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP81" t="inlineStr">
+      <c r="AT81" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ81" t="inlineStr">
+      <c r="AU81" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '80', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '80', 'href': None}]</t>
         </is>
@@ -15138,7 +16598,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>66c02225-dbe2-4eac-8bf7-ecdbdda09d48</t>
+          <t>c3c0c752-885b-4329-9404-a29b0a9efd01</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -15148,7 +16608,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2024-06-30T15:33:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
@@ -15161,7 +16621,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://www.notion.so/81-66c02225dbe24eac8bf7ecdbdda09d48</t>
+          <t>https://www.notion.so/81-c3c0c752885b43299404a29b0a9efd01</t>
         </is>
       </c>
       <c r="J82" t="inlineStr"/>
@@ -15297,15 +16757,33 @@
       </c>
       <c r="AO82" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP82" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ82" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS82" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP82" t="inlineStr">
+      <c r="AT82" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ82" t="inlineStr">
+      <c r="AU82" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '81', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '81', 'href': None}]</t>
         </is>
@@ -15319,7 +16797,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>94a638d5-726d-4740-9797-8e4f3775a742</t>
+          <t>66c02225-dbe2-4eac-8bf7-ecdbdda09d48</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -15329,7 +16807,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2024-06-30T15:33:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
@@ -15342,7 +16820,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://www.notion.so/82-94a638d5726d474097978e4f3775a742</t>
+          <t>https://www.notion.so/82-66c02225dbe24eac8bf7ecdbdda09d48</t>
         </is>
       </c>
       <c r="J83" t="inlineStr"/>
@@ -15478,15 +16956,33 @@
       </c>
       <c r="AO83" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP83" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ83" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR83" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="AS83" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP83" t="inlineStr">
+      <c r="AT83" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ83" t="inlineStr">
+      <c r="AU83" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '82', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '82', 'href': None}]</t>
         </is>
@@ -15500,7 +16996,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>916f4c61-6a8f-4943-b6c0-1a7b46ee4cde</t>
+          <t>94a638d5-726d-4740-9797-8e4f3775a742</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -15510,7 +17006,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2024-06-30T15:33:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
@@ -15523,7 +17019,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://www.notion.so/83-916f4c616a8f4943b6c01a7b46ee4cde</t>
+          <t>https://www.notion.so/83-94a638d5726d474097978e4f3775a742</t>
         </is>
       </c>
       <c r="J84" t="inlineStr"/>
@@ -15659,15 +17155,33 @@
       </c>
       <c r="AO84" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP84" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ84" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS84" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP84" t="inlineStr">
+      <c r="AT84" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ84" t="inlineStr">
+      <c r="AU84" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '83', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '83', 'href': None}]</t>
         </is>
@@ -15681,7 +17195,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>dc936191-5fd9-42da-8682-caa4e1831593</t>
+          <t>916f4c61-6a8f-4943-b6c0-1a7b46ee4cde</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -15691,7 +17205,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2024-06-30T15:33:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
@@ -15704,7 +17218,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://www.notion.so/84-dc9361915fd942da8682caa4e1831593</t>
+          <t>https://www.notion.so/84-916f4c616a8f4943b6c01a7b46ee4cde</t>
         </is>
       </c>
       <c r="J85" t="inlineStr"/>
@@ -15840,15 +17354,33 @@
       </c>
       <c r="AO85" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP85" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ85" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS85" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP85" t="inlineStr">
+      <c r="AT85" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ85" t="inlineStr">
+      <c r="AU85" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '84', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '84', 'href': None}]</t>
         </is>
@@ -15862,7 +17394,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>98971b82-bc7e-406c-b5a8-32f078924e5b</t>
+          <t>dc936191-5fd9-42da-8682-caa4e1831593</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -15872,7 +17404,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2024-06-30T15:33:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
@@ -15885,7 +17417,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://www.notion.so/85-98971b82bc7e406cb5a832f078924e5b</t>
+          <t>https://www.notion.so/85-dc9361915fd942da8682caa4e1831593</t>
         </is>
       </c>
       <c r="J86" t="inlineStr"/>
@@ -16021,15 +17553,33 @@
       </c>
       <c r="AO86" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP86" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ86" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS86" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP86" t="inlineStr">
+      <c r="AT86" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ86" t="inlineStr">
+      <c r="AU86" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '85', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '85', 'href': None}]</t>
         </is>
@@ -16043,7 +17593,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>1dae0078-b2a7-4998-aee4-1469b4c89311</t>
+          <t>98971b82-bc7e-406c-b5a8-32f078924e5b</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -16053,7 +17603,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2024-06-30T15:34:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E87" t="inlineStr"/>
@@ -16066,7 +17616,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://www.notion.so/86-1dae0078b2a74998aee41469b4c89311</t>
+          <t>https://www.notion.so/86-98971b82bc7e406cb5a832f078924e5b</t>
         </is>
       </c>
       <c r="J87" t="inlineStr"/>
@@ -16202,15 +17752,33 @@
       </c>
       <c r="AO87" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP87" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ87" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS87" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP87" t="inlineStr">
+      <c r="AT87" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ87" t="inlineStr">
+      <c r="AU87" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '86', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '86', 'href': None}]</t>
         </is>
@@ -16224,7 +17792,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>c22f73f9-4cfe-41f0-b1e8-d20983b5801c</t>
+          <t>1dae0078-b2a7-4998-aee4-1469b4c89311</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -16234,7 +17802,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2024-06-30T15:34:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E88" t="inlineStr"/>
@@ -16247,7 +17815,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://www.notion.so/87-c22f73f94cfe41f0b1e8d20983b5801c</t>
+          <t>https://www.notion.so/87-1dae0078b2a74998aee41469b4c89311</t>
         </is>
       </c>
       <c r="J88" t="inlineStr"/>
@@ -16383,15 +17951,33 @@
       </c>
       <c r="AO88" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP88" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ88" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS88" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP88" t="inlineStr">
+      <c r="AT88" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ88" t="inlineStr">
+      <c r="AU88" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '87', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '87', 'href': None}]</t>
         </is>
@@ -16405,7 +17991,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>e1eea6d7-d5a7-40ae-b005-ace756e63003</t>
+          <t>c22f73f9-4cfe-41f0-b1e8-d20983b5801c</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -16415,7 +18001,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2024-06-30T15:34:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E89" t="inlineStr"/>
@@ -16428,7 +18014,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://www.notion.so/88-e1eea6d7d5a740aeb005ace756e63003</t>
+          <t>https://www.notion.so/88-c22f73f94cfe41f0b1e8d20983b5801c</t>
         </is>
       </c>
       <c r="J89" t="inlineStr"/>
@@ -16564,15 +18150,33 @@
       </c>
       <c r="AO89" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP89" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ89" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS89" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP89" t="inlineStr">
+      <c r="AT89" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ89" t="inlineStr">
+      <c r="AU89" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '88', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '88', 'href': None}]</t>
         </is>
@@ -16586,7 +18190,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>b12a2dc1-7743-4fe1-8a66-784604ceff83</t>
+          <t>e1eea6d7-d5a7-40ae-b005-ace756e63003</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -16596,7 +18200,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2024-06-30T15:34:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E90" t="inlineStr"/>
@@ -16609,7 +18213,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://www.notion.so/89-b12a2dc177434fe18a66784604ceff83</t>
+          <t>https://www.notion.so/89-e1eea6d7d5a740aeb005ace756e63003</t>
         </is>
       </c>
       <c r="J90" t="inlineStr"/>
@@ -16745,15 +18349,33 @@
       </c>
       <c r="AO90" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP90" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ90" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS90" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP90" t="inlineStr">
+      <c r="AT90" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ90" t="inlineStr">
+      <c r="AU90" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '89', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '89', 'href': None}]</t>
         </is>
@@ -16767,7 +18389,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>a896264d-d720-447c-9605-ce9aed400e41</t>
+          <t>b12a2dc1-7743-4fe1-8a66-784604ceff83</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -16777,7 +18399,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2024-06-30T15:34:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E91" t="inlineStr"/>
@@ -16790,7 +18412,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://www.notion.so/90-a896264dd720447c9605ce9aed400e41</t>
+          <t>https://www.notion.so/90-b12a2dc177434fe18a66784604ceff83</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
@@ -16926,15 +18548,33 @@
       </c>
       <c r="AO91" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP91" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ91" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS91" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP91" t="inlineStr">
+      <c r="AT91" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ91" t="inlineStr">
+      <c r="AU91" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '90', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '90', 'href': None}]</t>
         </is>
@@ -16948,7 +18588,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>cbb64990-6e53-4766-9c60-ebbb82343224</t>
+          <t>a896264d-d720-447c-9605-ce9aed400e41</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -16958,7 +18598,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2024-06-30T15:34:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
@@ -16971,7 +18611,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://www.notion.so/91-cbb649906e5347669c60ebbb82343224</t>
+          <t>https://www.notion.so/91-a896264dd720447c9605ce9aed400e41</t>
         </is>
       </c>
       <c r="J92" t="inlineStr"/>
@@ -17107,15 +18747,33 @@
       </c>
       <c r="AO92" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP92" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ92" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR92" t="n">
+        <v>500000</v>
+      </c>
+      <c r="AS92" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP92" t="inlineStr">
+      <c r="AT92" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ92" t="inlineStr">
+      <c r="AU92" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '91', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '91', 'href': None}]</t>
         </is>
@@ -17129,7 +18787,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>4ec5bc4b-bd02-4d8d-a967-12b00846611f</t>
+          <t>cbb64990-6e53-4766-9c60-ebbb82343224</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -17139,7 +18797,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2024-06-30T15:34:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
@@ -17152,7 +18810,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://www.notion.so/92-4ec5bc4bbd024d8da96712b00846611f</t>
+          <t>https://www.notion.so/92-cbb649906e5347669c60ebbb82343224</t>
         </is>
       </c>
       <c r="J93" t="inlineStr"/>
@@ -17288,15 +18946,33 @@
       </c>
       <c r="AO93" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP93" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ93" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS93" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP93" t="inlineStr">
+      <c r="AT93" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ93" t="inlineStr">
+      <c r="AU93" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '92', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '92', 'href': None}]</t>
         </is>
@@ -17310,7 +18986,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>1ca34285-7b7b-45b3-8d63-0db08e839147</t>
+          <t>4ec5bc4b-bd02-4d8d-a967-12b00846611f</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -17320,7 +18996,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2024-06-30T15:34:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E94" t="inlineStr"/>
@@ -17333,7 +19009,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://www.notion.so/93-1ca342857b7b45b38d630db08e839147</t>
+          <t>https://www.notion.so/93-4ec5bc4bbd024d8da96712b00846611f</t>
         </is>
       </c>
       <c r="J94" t="inlineStr"/>
@@ -17469,15 +19145,33 @@
       </c>
       <c r="AO94" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP94" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ94" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS94" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP94" t="inlineStr">
+      <c r="AT94" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ94" t="inlineStr">
+      <c r="AU94" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '93', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '93', 'href': None}]</t>
         </is>
@@ -17491,7 +19185,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>726c6db9-1331-49a4-ac95-b8bb50a908cf</t>
+          <t>1ca34285-7b7b-45b3-8d63-0db08e839147</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -17501,7 +19195,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2024-06-30T15:34:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E95" t="inlineStr"/>
@@ -17514,7 +19208,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://www.notion.so/94-726c6db9133149a4ac95b8bb50a908cf</t>
+          <t>https://www.notion.so/94-1ca342857b7b45b38d630db08e839147</t>
         </is>
       </c>
       <c r="J95" t="inlineStr"/>
@@ -17650,15 +19344,33 @@
       </c>
       <c r="AO95" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP95" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ95" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR95" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="AS95" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP95" t="inlineStr">
+      <c r="AT95" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ95" t="inlineStr">
+      <c r="AU95" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '94', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '94', 'href': None}]</t>
         </is>
@@ -17672,7 +19384,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>995f8767-dacb-4c2d-b37f-4a15b392ea08</t>
+          <t>726c6db9-1331-49a4-ac95-b8bb50a908cf</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -17682,7 +19394,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2024-06-30T15:34:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E96" t="inlineStr"/>
@@ -17695,7 +19407,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://www.notion.so/95-995f8767dacb4c2db37f4a15b392ea08</t>
+          <t>https://www.notion.so/95-726c6db9133149a4ac95b8bb50a908cf</t>
         </is>
       </c>
       <c r="J96" t="inlineStr"/>
@@ -17740,7 +19452,7 @@
         </is>
       </c>
       <c r="S96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T96" t="inlineStr">
         <is>
@@ -17831,15 +19543,33 @@
       </c>
       <c r="AO96" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP96" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ96" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS96" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP96" t="inlineStr">
+      <c r="AT96" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ96" t="inlineStr">
+      <c r="AU96" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '95', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '95', 'href': None}]</t>
         </is>
@@ -17853,7 +19583,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>54c06f86-85fe-495c-8eed-c14761bc69d2</t>
+          <t>995f8767-dacb-4c2d-b37f-4a15b392ea08</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -17863,7 +19593,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2024-06-30T15:34:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E97" t="inlineStr"/>
@@ -17876,7 +19606,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://www.notion.so/96-54c06f8685fe495c8eedc14761bc69d2</t>
+          <t>https://www.notion.so/96-995f8767dacb4c2db37f4a15b392ea08</t>
         </is>
       </c>
       <c r="J97" t="inlineStr"/>
@@ -18012,15 +19742,33 @@
       </c>
       <c r="AO97" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP97" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ97" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS97" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP97" t="inlineStr">
+      <c r="AT97" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ97" t="inlineStr">
+      <c r="AU97" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '96', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '96', 'href': None}]</t>
         </is>
@@ -18034,7 +19782,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>4cf0cc74-afa5-4872-bc1e-a4b64ec04118</t>
+          <t>54c06f86-85fe-495c-8eed-c14761bc69d2</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -18044,7 +19792,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2024-06-30T15:34:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E98" t="inlineStr"/>
@@ -18057,7 +19805,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://www.notion.so/97-4cf0cc74afa54872bc1ea4b64ec04118</t>
+          <t>https://www.notion.so/97-54c06f8685fe495c8eedc14761bc69d2</t>
         </is>
       </c>
       <c r="J98" t="inlineStr"/>
@@ -18193,15 +19941,33 @@
       </c>
       <c r="AO98" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP98" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ98" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS98" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP98" t="inlineStr">
+      <c r="AT98" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ98" t="inlineStr">
+      <c r="AU98" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '97', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '97', 'href': None}]</t>
         </is>
@@ -18215,7 +19981,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2b9d2b03-2235-456c-b073-7d2b8cefe8a1</t>
+          <t>4cf0cc74-afa5-4872-bc1e-a4b64ec04118</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -18225,7 +19991,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2024-06-30T15:34:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E99" t="inlineStr"/>
@@ -18238,7 +20004,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://www.notion.so/98-2b9d2b032235456cb0737d2b8cefe8a1</t>
+          <t>https://www.notion.so/98-4cf0cc74afa54872bc1ea4b64ec04118</t>
         </is>
       </c>
       <c r="J99" t="inlineStr"/>
@@ -18374,15 +20140,33 @@
       </c>
       <c r="AO99" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP99" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ99" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS99" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP99" t="inlineStr">
+      <c r="AT99" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ99" t="inlineStr">
+      <c r="AU99" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '98', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '98', 'href': None}]</t>
         </is>
@@ -18396,7 +20180,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>a0afcb05-dbae-4f43-9611-7c939a084d20</t>
+          <t>2b9d2b03-2235-456c-b073-7d2b8cefe8a1</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -18406,7 +20190,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2024-06-30T15:34:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E100" t="inlineStr"/>
@@ -18419,7 +20203,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://www.notion.so/99-a0afcb05dbae4f4396117c939a084d20</t>
+          <t>https://www.notion.so/99-2b9d2b032235456cb0737d2b8cefe8a1</t>
         </is>
       </c>
       <c r="J100" t="inlineStr"/>
@@ -18555,15 +20339,33 @@
       </c>
       <c r="AO100" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP100" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ100" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS100" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP100" t="inlineStr">
+      <c r="AT100" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ100" t="inlineStr">
+      <c r="AU100" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '99', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '99', 'href': None}]</t>
         </is>
@@ -18577,7 +20379,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>74b364b1-15ec-4b14-aff9-65d64ce12e12</t>
+          <t>a0afcb05-dbae-4f43-9611-7c939a084d20</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -18587,7 +20389,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2024-06-30T15:34:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E101" t="inlineStr"/>
@@ -18600,7 +20402,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://www.notion.so/100-74b364b115ec4b14aff965d64ce12e12</t>
+          <t>https://www.notion.so/100-a0afcb05dbae4f4396117c939a084d20</t>
         </is>
       </c>
       <c r="J101" t="inlineStr"/>
@@ -18736,15 +20538,33 @@
       </c>
       <c r="AO101" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP101" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ101" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR101" t="n">
+        <v>12000000</v>
+      </c>
+      <c r="AS101" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP101" t="inlineStr">
+      <c r="AT101" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ101" t="inlineStr">
+      <c r="AU101" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '100', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '100', 'href': None}]</t>
         </is>
@@ -18758,7 +20578,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>3c225fea-a1de-4673-aed9-f2ec10bf6e31</t>
+          <t>74b364b1-15ec-4b14-aff9-65d64ce12e12</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -18768,7 +20588,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2024-06-30T15:34:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E102" t="inlineStr"/>
@@ -18781,7 +20601,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://www.notion.so/101-3c225feaa1de4673aed9f2ec10bf6e31</t>
+          <t>https://www.notion.so/101-74b364b115ec4b14aff965d64ce12e12</t>
         </is>
       </c>
       <c r="J102" t="inlineStr"/>
@@ -18917,15 +20737,33 @@
       </c>
       <c r="AO102" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP102" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ102" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS102" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP102" t="inlineStr">
+      <c r="AT102" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ102" t="inlineStr">
+      <c r="AU102" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '101', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '101', 'href': None}]</t>
         </is>
@@ -18939,7 +20777,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>88832275-d56a-4d93-9d6b-2189a13085b3</t>
+          <t>3c225fea-a1de-4673-aed9-f2ec10bf6e31</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -18949,7 +20787,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2024-06-30T15:34:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E103" t="inlineStr"/>
@@ -18962,7 +20800,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://www.notion.so/102-88832275d56a4d939d6b2189a13085b3</t>
+          <t>https://www.notion.so/102-3c225feaa1de4673aed9f2ec10bf6e31</t>
         </is>
       </c>
       <c r="J103" t="inlineStr"/>
@@ -19098,15 +20936,33 @@
       </c>
       <c r="AO103" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP103" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ103" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS103" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP103" t="inlineStr">
+      <c r="AT103" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ103" t="inlineStr">
+      <c r="AU103" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '102', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '102', 'href': None}]</t>
         </is>
@@ -19120,7 +20976,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>9d451a84-6b7c-4019-a31c-9fed17f25dec</t>
+          <t>88832275-d56a-4d93-9d6b-2189a13085b3</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -19130,7 +20986,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2024-06-30T15:34:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E104" t="inlineStr"/>
@@ -19143,7 +20999,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://www.notion.so/103-9d451a846b7c4019a31c9fed17f25dec</t>
+          <t>https://www.notion.so/103-88832275d56a4d939d6b2189a13085b3</t>
         </is>
       </c>
       <c r="J104" t="inlineStr"/>
@@ -19279,15 +21135,33 @@
       </c>
       <c r="AO104" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP104" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ104" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS104" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP104" t="inlineStr">
+      <c r="AT104" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ104" t="inlineStr">
+      <c r="AU104" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '103', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '103', 'href': None}]</t>
         </is>
@@ -19301,7 +21175,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>0b237756-0adf-4566-9ceb-29df4911a1fc</t>
+          <t>9d451a84-6b7c-4019-a31c-9fed17f25dec</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -19311,7 +21185,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2024-06-30T15:34:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E105" t="inlineStr"/>
@@ -19324,7 +21198,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://www.notion.so/104-0b2377560adf45669ceb29df4911a1fc</t>
+          <t>https://www.notion.so/104-9d451a846b7c4019a31c9fed17f25dec</t>
         </is>
       </c>
       <c r="J105" t="inlineStr"/>
@@ -19460,15 +21334,33 @@
       </c>
       <c r="AO105" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP105" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ105" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS105" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP105" t="inlineStr">
+      <c r="AT105" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ105" t="inlineStr">
+      <c r="AU105" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '104', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '104', 'href': None}]</t>
         </is>
@@ -19482,7 +21374,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>aef2fde4-29f5-41a1-a393-4191f3aab1fb</t>
+          <t>0b237756-0adf-4566-9ceb-29df4911a1fc</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -19492,7 +21384,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2024-06-30T15:34:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E106" t="inlineStr"/>
@@ -19505,7 +21397,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://www.notion.so/105-aef2fde429f541a1a3934191f3aab1fb</t>
+          <t>https://www.notion.so/105-0b2377560adf45669ceb29df4911a1fc</t>
         </is>
       </c>
       <c r="J106" t="inlineStr"/>
@@ -19641,15 +21533,33 @@
       </c>
       <c r="AO106" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP106" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ106" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR106" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="AS106" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP106" t="inlineStr">
+      <c r="AT106" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ106" t="inlineStr">
+      <c r="AU106" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '105', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '105', 'href': None}]</t>
         </is>
@@ -19663,7 +21573,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>a5805d2a-974e-494d-8547-db6202ff0e8b</t>
+          <t>aef2fde4-29f5-41a1-a393-4191f3aab1fb</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -19673,7 +21583,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2024-06-30T15:34:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E107" t="inlineStr"/>
@@ -19686,7 +21596,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://www.notion.so/106-a5805d2a974e494d8547db6202ff0e8b</t>
+          <t>https://www.notion.so/106-aef2fde429f541a1a3934191f3aab1fb</t>
         </is>
       </c>
       <c r="J107" t="inlineStr"/>
@@ -19822,15 +21732,33 @@
       </c>
       <c r="AO107" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP107" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ107" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS107" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP107" t="inlineStr">
+      <c r="AT107" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ107" t="inlineStr">
+      <c r="AU107" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '106', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '106', 'href': None}]</t>
         </is>
@@ -19844,7 +21772,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>907bfe00-b515-4d8d-896f-259cdf7d2552</t>
+          <t>a5805d2a-974e-494d-8547-db6202ff0e8b</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -19854,7 +21782,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2024-06-30T15:34:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E108" t="inlineStr"/>
@@ -19867,7 +21795,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://www.notion.so/107-907bfe00b5154d8d896f259cdf7d2552</t>
+          <t>https://www.notion.so/107-a5805d2a974e494d8547db6202ff0e8b</t>
         </is>
       </c>
       <c r="J108" t="inlineStr"/>
@@ -20003,15 +21931,33 @@
       </c>
       <c r="AO108" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP108" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ108" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS108" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP108" t="inlineStr">
+      <c r="AT108" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ108" t="inlineStr">
+      <c r="AU108" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '107', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '107', 'href': None}]</t>
         </is>
@@ -20025,7 +21971,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>251b433b-4baa-41e0-9ec5-737b077a8955</t>
+          <t>907bfe00-b515-4d8d-896f-259cdf7d2552</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -20035,7 +21981,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2024-06-30T15:34:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E109" t="inlineStr"/>
@@ -20048,7 +21994,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://www.notion.so/108-251b433b4baa41e09ec5737b077a8955</t>
+          <t>https://www.notion.so/108-907bfe00b5154d8d896f259cdf7d2552</t>
         </is>
       </c>
       <c r="J109" t="inlineStr"/>
@@ -20184,15 +22130,33 @@
       </c>
       <c r="AO109" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP109" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ109" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS109" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP109" t="inlineStr">
+      <c r="AT109" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ109" t="inlineStr">
+      <c r="AU109" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '108', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '108', 'href': None}]</t>
         </is>
@@ -20206,7 +22170,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>5b406471-905f-4cb1-ab92-7b89d36b8114</t>
+          <t>251b433b-4baa-41e0-9ec5-737b077a8955</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -20216,7 +22180,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2024-06-30T15:34:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E110" t="inlineStr"/>
@@ -20229,7 +22193,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://www.notion.so/109-5b406471905f4cb1ab927b89d36b8114</t>
+          <t>https://www.notion.so/109-251b433b4baa41e09ec5737b077a8955</t>
         </is>
       </c>
       <c r="J110" t="inlineStr"/>
@@ -20365,15 +22329,33 @@
       </c>
       <c r="AO110" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP110" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ110" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS110" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP110" t="inlineStr">
+      <c r="AT110" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ110" t="inlineStr">
+      <c r="AU110" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '109', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '109', 'href': None}]</t>
         </is>
@@ -20387,7 +22369,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>aef49589-f864-4815-b926-fad034a6d746</t>
+          <t>5b406471-905f-4cb1-ab92-7b89d36b8114</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -20397,7 +22379,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2024-06-30T15:34:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E111" t="inlineStr"/>
@@ -20410,7 +22392,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://www.notion.so/110-aef49589f8644815b926fad034a6d746</t>
+          <t>https://www.notion.so/110-5b406471905f4cb1ab927b89d36b8114</t>
         </is>
       </c>
       <c r="J111" t="inlineStr"/>
@@ -20546,15 +22528,33 @@
       </c>
       <c r="AO111" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP111" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ111" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS111" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP111" t="inlineStr">
+      <c r="AT111" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ111" t="inlineStr">
+      <c r="AU111" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '110', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '110', 'href': None}]</t>
         </is>
@@ -20568,7 +22568,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>dfcce9f3-165b-4c27-9a80-34317c295020</t>
+          <t>aef49589-f864-4815-b926-fad034a6d746</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -20578,7 +22578,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2024-06-30T15:34:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E112" t="inlineStr"/>
@@ -20591,7 +22591,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://www.notion.so/111-dfcce9f3165b4c279a8034317c295020</t>
+          <t>https://www.notion.so/111-aef49589f8644815b926fad034a6d746</t>
         </is>
       </c>
       <c r="J112" t="inlineStr"/>
@@ -20727,15 +22727,33 @@
       </c>
       <c r="AO112" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP112" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ112" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS112" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP112" t="inlineStr">
+      <c r="AT112" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ112" t="inlineStr">
+      <c r="AU112" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '111', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '111', 'href': None}]</t>
         </is>
@@ -20749,7 +22767,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>5b513ab5-ea12-45a2-b96b-4bf9df9995ed</t>
+          <t>dfcce9f3-165b-4c27-9a80-34317c295020</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -20759,7 +22777,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2024-06-30T15:34:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E113" t="inlineStr"/>
@@ -20772,7 +22790,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://www.notion.so/112-5b513ab5ea1245a2b96b4bf9df9995ed</t>
+          <t>https://www.notion.so/112-dfcce9f3165b4c279a8034317c295020</t>
         </is>
       </c>
       <c r="J113" t="inlineStr"/>
@@ -20908,15 +22926,33 @@
       </c>
       <c r="AO113" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP113" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ113" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS113" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP113" t="inlineStr">
+      <c r="AT113" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ113" t="inlineStr">
+      <c r="AU113" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '112', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '112', 'href': None}]</t>
         </is>
@@ -20930,7 +22966,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>1ca4b9be-2ea6-46e8-bee9-100028cec31e</t>
+          <t>5b513ab5-ea12-45a2-b96b-4bf9df9995ed</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -20940,7 +22976,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2024-06-30T15:34:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E114" t="inlineStr"/>
@@ -20953,7 +22989,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://www.notion.so/113-1ca4b9be2ea646e8bee9100028cec31e</t>
+          <t>https://www.notion.so/113-5b513ab5ea1245a2b96b4bf9df9995ed</t>
         </is>
       </c>
       <c r="J114" t="inlineStr"/>
@@ -21089,15 +23125,33 @@
       </c>
       <c r="AO114" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP114" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ114" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS114" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP114" t="inlineStr">
+      <c r="AT114" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ114" t="inlineStr">
+      <c r="AU114" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '113', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '113', 'href': None}]</t>
         </is>
@@ -21111,7 +23165,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>a16599b2-66e4-45d6-ba0c-3d49dff6c687</t>
+          <t>1ca4b9be-2ea6-46e8-bee9-100028cec31e</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -21121,7 +23175,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2024-06-30T15:34:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E115" t="inlineStr"/>
@@ -21134,7 +23188,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://www.notion.so/114-a16599b266e445d6ba0c3d49dff6c687</t>
+          <t>https://www.notion.so/114-1ca4b9be2ea646e8bee9100028cec31e</t>
         </is>
       </c>
       <c r="J115" t="inlineStr"/>
@@ -21270,15 +23324,33 @@
       </c>
       <c r="AO115" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP115" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ115" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS115" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP115" t="inlineStr">
+      <c r="AT115" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ115" t="inlineStr">
+      <c r="AU115" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '114', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '114', 'href': None}]</t>
         </is>
@@ -21292,17 +23364,17 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>01558575-577b-4a9b-9b04-922298f3d78c</t>
+          <t>a16599b2-66e4-45d6-ba0c-3d49dff6c687</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>2024-06-25T08:25:00.000Z</t>
+          <t>2024-06-25T15:44:00.000Z</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2024-06-30T15:34:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E116" t="inlineStr"/>
@@ -21315,7 +23387,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://www.notion.so/115-01558575577b4a9b9b04922298f3d78c</t>
+          <t>https://www.notion.so/115-a16599b266e445d6ba0c3d49dff6c687</t>
         </is>
       </c>
       <c r="J116" t="inlineStr"/>
@@ -21326,7 +23398,7 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
@@ -21451,15 +23523,33 @@
       </c>
       <c r="AO116" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP116" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ116" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS116" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP116" t="inlineStr">
+      <c r="AT116" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ116" t="inlineStr">
+      <c r="AU116" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '115', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '115', 'href': None}]</t>
         </is>
@@ -21473,7 +23563,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>063fd668-0835-49af-a935-70ff8074aa87</t>
+          <t>01558575-577b-4a9b-9b04-922298f3d78c</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -21483,7 +23573,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>2024-06-30T15:34:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E117" t="inlineStr"/>
@@ -21496,7 +23586,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://www.notion.so/116-063fd668083549afa93570ff8074aa87</t>
+          <t>https://www.notion.so/116-01558575577b4a9b9b04922298f3d78c</t>
         </is>
       </c>
       <c r="J117" t="inlineStr"/>
@@ -21632,15 +23722,33 @@
       </c>
       <c r="AO117" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP117" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ117" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS117" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP117" t="inlineStr">
+      <c r="AT117" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ117" t="inlineStr">
+      <c r="AU117" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '116', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '116', 'href': None}]</t>
         </is>
@@ -21654,7 +23762,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>49b0c30f-094e-40e6-8e75-7f0c1355479f</t>
+          <t>063fd668-0835-49af-a935-70ff8074aa87</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -21664,7 +23772,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2024-06-30T15:34:00.000Z</t>
+          <t>2024-07-01T14:24:00.000Z</t>
         </is>
       </c>
       <c r="E118" t="inlineStr"/>
@@ -21677,7 +23785,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://www.notion.so/117-49b0c30f094e40e68e757f0c1355479f</t>
+          <t>https://www.notion.so/117-063fd668083549afa93570ff8074aa87</t>
         </is>
       </c>
       <c r="J118" t="inlineStr"/>
@@ -21813,17 +23921,234 @@
       </c>
       <c r="AO118" t="inlineStr">
         <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP118" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ118" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR118" t="n">
+        <v>43600000</v>
+      </c>
+      <c r="AS118" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP118" t="inlineStr">
+      <c r="AT118" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AQ118" t="inlineStr">
+      <c r="AU118" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '117', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '117', 'href': None}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>page</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>49b0c30f-094e-40e6-8e75-7f0c1355479f</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>2024-06-25T08:25:00.000Z</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2024-07-01T14:24:00.000Z</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="b">
+        <v>0</v>
+      </c>
+      <c r="H119" t="b">
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>https://www.notion.so/118-49b0c30f094e40e68e757f0c1355479f</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+        </is>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
+        </is>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>database_id</t>
+        </is>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>b881c341-e6ba-4fa5-acba-1d0d0c17746d</t>
+        </is>
+      </c>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>JgG%7B</t>
+        </is>
+      </c>
+      <c r="R119" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="S119" t="n">
+        <v>1</v>
+      </c>
+      <c r="T119" t="inlineStr">
+        <is>
+          <t>Nk%3CD</t>
+        </is>
+      </c>
+      <c r="U119" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="V119" t="n">
+        <v>0</v>
+      </c>
+      <c r="W119" t="inlineStr">
+        <is>
+          <t>Vds%5C</t>
+        </is>
+      </c>
+      <c r="X119" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="Y119" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z119" t="inlineStr">
+        <is>
+          <t>bwGG</t>
+        </is>
+      </c>
+      <c r="AA119" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AB119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC119" t="inlineStr">
+        <is>
+          <t>kciy</t>
+        </is>
+      </c>
+      <c r="AD119" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AE119" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="AF119" t="inlineStr"/>
+      <c r="AG119" t="inlineStr"/>
+      <c r="AH119" t="inlineStr">
+        <is>
+          <t>nWGB</t>
+        </is>
+      </c>
+      <c r="AI119" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AJ119" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AK119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL119" t="inlineStr">
+        <is>
+          <t>pq%3Ci</t>
+        </is>
+      </c>
+      <c r="AM119" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AN119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO119" t="inlineStr">
+        <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP119" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ119" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS119" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AT119" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AU119" t="inlineStr">
+        <is>
+          <t>[{'type': 'text', 'text': {'content': '118', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '118', 'href': None}]</t>
         </is>
       </c>
     </row>
